--- a/问题记录/《项目问题记录表》-南京实施部-翁晨.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="22368" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -103,7 +103,28 @@
     <t>新的5.18更新包可解决。</t>
   </si>
   <si>
-    <t>无</t>
+    <t>瓶子菜馆</t>
+  </si>
+  <si>
+    <t>老客户开新店以后微信餐厅点餐无法显示新店餐厅</t>
+  </si>
+  <si>
+    <t>微信公众号功能选择翻翻附近菜单</t>
+  </si>
+  <si>
+    <t>和记烤鸭</t>
+  </si>
+  <si>
+    <t>实体卡操作无法有的时候读不出来</t>
+  </si>
+  <si>
+    <t>由于电脑前面的usb插口接触不良导致</t>
+  </si>
+  <si>
+    <t>楼兰新城市广场店</t>
+  </si>
+  <si>
+    <t>一楼的留台单设置了以后就是不出单</t>
   </si>
 </sst>
 </file>
@@ -111,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -149,7 +170,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,6 +193,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -172,15 +259,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,99 +289,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,49 +328,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,19 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,109 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,31 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,11 +578,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +623,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -621,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,23 +1157,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.225" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.1111111111111" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.225" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.225" style="4" customWidth="1"/>
+    <col min="5" max="5" width="70.2222222222222" style="4" customWidth="1"/>
+    <col min="6" max="6" width="71.2222222222222" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1319,13 +1340,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="7"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-翁晨.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-翁晨.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>一楼的留台单设置了以后就是不出单</t>
+  </si>
+  <si>
+    <t>总部支援以后出单了</t>
+  </si>
+  <si>
+    <t>珍宝阁</t>
+  </si>
+  <si>
+    <t>电脑无法联网但是打印机可以出单</t>
+  </si>
+  <si>
+    <t>由于电脑与路由器到交换机之间的网线连接错误导致</t>
   </si>
 </sst>
 </file>
@@ -132,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -169,6 +181,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -178,6 +266,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -185,129 +281,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +340,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,13 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,6 +388,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,6 +454,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,19 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,102 +521,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -547,16 +574,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,9 +605,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,42 +624,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1375,7 +1387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:6">
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -1387,6 +1399,26 @@
       </c>
       <c r="E12" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-翁晨.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>日期</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>由于电脑与路由器到交换机之间的网线连接错误导致</t>
+  </si>
+  <si>
+    <t>松匠日本料理</t>
+  </si>
+  <si>
+    <t>微信扫码点餐点套餐出现菜品错误</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>使用营销团购券以后经常会出现免找，导致多收客人钱（2.0saas）</t>
   </si>
 </sst>
 </file>
@@ -145,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -190,7 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,37 +232,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,11 +260,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,36 +299,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +352,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,25 +424,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,18 +520,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,96 +533,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,17 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,16 +585,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -605,11 +617,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,25 +634,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,16 +678,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,16 +696,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,97 +714,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,6 +892,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4244340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>216535</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="9fc2a293523bad8ff06c74e562b792b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13243560" y="1836420"/>
+          <a:ext cx="2708275" cy="3672840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="42f0c780273f0909dd2ff327e6f29a5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16040100" y="1828800"/>
+          <a:ext cx="6926580" cy="3387725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="374950497294456609"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23004780" y="1844040"/>
+          <a:ext cx="5029200" cy="7696835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1699895</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="327532026862688527"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="3863340"/>
+          <a:ext cx="5395595" cy="7399655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1938655</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="682594435178935265"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6316980" y="3878580"/>
+          <a:ext cx="4620895" cy="6066790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,10 +1376,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1421,9 +1628,44 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>